--- a/data/trans_orig/P14B38_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B38_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB921863-7F2A-4FB0-AB9D-06EF0E31831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{813DF5A0-11D8-4F59-B604-AEA70547E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BA7F584-7AAF-4D41-9528-B95B0A0595E6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F2BC73A-659C-40B0-9DB2-6D072EB6160C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>89,94%</t>
   </si>
   <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>10,06%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>77,88%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>66,58%</t>
   </si>
   <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>33,42%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>76,27%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>65,25%</t>
   </si>
   <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>34,75%</t>
   </si>
   <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
   </si>
   <si>
     <t>78,64%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA90A9F-8E93-4963-8E78-72E7218F447D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A198BD21-C6EC-4394-A1F1-F875F415D2ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14B38_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B38_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{813DF5A0-11D8-4F59-B604-AEA70547E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{890A3D00-695F-43B7-A518-05DE0C2D835D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F2BC73A-659C-40B0-9DB2-6D072EB6160C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39FE6E61-2772-4705-A4D3-1C02419E645D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A198BD21-C6EC-4394-A1F1-F875F415D2ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62E374B-6A02-4ECA-8755-F03A7C71A583}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
